--- a/biology/Botanique/Deinbollia_unijuga/Deinbollia_unijuga.xlsx
+++ b/biology/Botanique/Deinbollia_unijuga/Deinbollia_unijuga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deinboliia unijuga est une espèce d'arbuste à fleurs blanches, endémique du Cameroun. Cet arbuste fait partie de la famille des Sapindaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Deinbollia unijuga est un arbuste, haut de 3 m au plus, bien que généralement il ne fasse pas plus d'1 m.
-En général il n'a pas de branches, quelques feuilles seulement regroupées au bout des branches éventuelles. Ses feuilles sont vertes, avec des pétioles de 1-4 cm de long, et deviennent grisâtres quand elles vieillissent. Les fleurs apparaissent sur les côtés, au milieu des feuilles; Sa panicule est solide, d'environ 6 cm avec quelques branches latérales courtes[2].
+En général il n'a pas de branches, quelques feuilles seulement regroupées au bout des branches éventuelles. Ses feuilles sont vertes, avec des pétioles de 1-4 cm de long, et deviennent grisâtres quand elles vieillissent. Les fleurs apparaissent sur les côtés, au milieu des feuilles; Sa panicule est solide, d'environ 6 cm avec quelques branches latérales courtes.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On peut trouver cet arbuste seulement au Cameroun d'où il est endémique. 
-Plus précisément, il est originaire et présent dans la région du parc national de Korup, au Sud-Ouest du Cameroun [2].
-Deinbollia unijuga est présent en forêt ou dans la brousse [3].
+Plus précisément, il est originaire et présent dans la région du parc national de Korup, au Sud-Ouest du Cameroun .
+Deinbollia unijuga est présent en forêt ou dans la brousse .
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est rare [2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est rare .
 </t>
         </is>
       </c>
@@ -608,6 +626,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
